--- a/Deseq2/SRP377060 - Leishmania/results/PCA_NonInfected_vs_InfectedLive.xlsx
+++ b/Deseq2/SRP377060 - Leishmania/results/PCA_NonInfected_vs_InfectedLive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">PC1</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t xml:space="preserve">DC_Infected_Live_Parasites_2_SRR19400241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC_Infected_Live_Parasites_3_SRR19400242</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Infected</t>
@@ -395,10 +398,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-14.0818638560262</v>
+        <v>-9.96954295370891</v>
       </c>
       <c r="B2" t="n">
-        <v>6.28728551097768</v>
+        <v>10.6263599512385</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -412,10 +415,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-14.2706358444757</v>
+        <v>-11.9057180322459</v>
       </c>
       <c r="B3" t="n">
-        <v>-6.84543234689444</v>
+        <v>-0.79741486008028</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -429,36 +432,53 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16.7251580892421</v>
+        <v>-13.1717107815839</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.06832104077835</v>
+        <v>-9.09574869306719</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11.6273416112598</v>
+        <v>19.5576567026726</v>
       </c>
       <c r="B5" t="n">
-        <v>3.62646787669511</v>
+        <v>-2.95051563625779</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>15.4893150648661</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.21731923816671</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Deseq2/SRP377060 - Leishmania/results/PCA_NonInfected_vs_InfectedLive.xlsx
+++ b/Deseq2/SRP377060 - Leishmania/results/PCA_NonInfected_vs_InfectedLive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">PC1</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve">DC_Infected_Live_Parasites_2_SRR19400241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DC_Infected_Live_Parasites_3_SRR19400242</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Infected</t>
@@ -398,10 +395,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-9.96954295370891</v>
+        <v>-14.0818638560262</v>
       </c>
       <c r="B2" t="n">
-        <v>10.6263599512385</v>
+        <v>6.28728551097768</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -415,10 +412,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-11.9057180322459</v>
+        <v>-14.2706358444757</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.79741486008028</v>
+        <v>-6.84543234689444</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -432,53 +429,36 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-13.1717107815839</v>
+        <v>16.7251580892421</v>
       </c>
       <c r="B4" t="n">
-        <v>-9.09574869306719</v>
+        <v>-3.06832104077835</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>19.5576567026726</v>
+        <v>11.6273416112598</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.95051563625779</v>
+        <v>3.62646787669511</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>15.4893150648661</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.21731923816671</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
